--- a/hp/io_cost/new_new_60%_100%_RecoveryTime_RS(k,r)-10-15.xlsx
+++ b/hp/io_cost/new_new_60%_100%_RecoveryTime_RS(k,r)-10-15.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E488B58-E7FD-410A-A91B-4B5DB5267FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="4M" sheetId="5" r:id="rId1"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,10 +387,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -533,7 +532,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+  <sortState ref="A2:G6">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -542,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +686,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+  <sortState ref="A2:G6">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
